--- a/Desafio2/group-by-estado-civil.xlsx
+++ b/Desafio2/group-by-estado-civil.xlsx
@@ -17,9 +17,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11.0"/>
@@ -49,10 +47,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -81,56 +77,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Casado</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>384.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Divorciado</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>132.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Separado</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Solteiro</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>280.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Viúvo</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
